--- a/examples/ftest/fm27/comparison2.xlsx
+++ b/examples/ftest/fm27/comparison2.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="B1:M54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O27" activeCellId="0" sqref="O27"/>
+      <selection pane="topLeft" activeCell="O44" activeCellId="0" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -574,11 +574,11 @@
         <v>0.0699999999487773</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>601713.07</v>
+        <v>527940.34</v>
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">(L5-F5)</f>
-        <v>73772.8150314753</v>
+        <v>0.0850314752897248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,11 +650,11 @@
         <v>0.0300000000279397</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>368314.03</v>
+        <v>362946.5</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">(L7-F7)</f>
-        <v>5367.54797684844</v>
+        <v>0.0179768484085798</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,11 +688,11 @@
         <v>0.0399999999790452</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>415867.04</v>
+        <v>396562.54</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">(L8-F8)</f>
-        <v>19304.5232685963</v>
+        <v>0.023268596327398</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,11 +878,11 @@
         <v>0.0300000000279397</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>603670.03</v>
+        <v>529323.76</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">(L13-F13)</f>
-        <v>74346.3380259436</v>
+        <v>0.0680259435903281</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,11 +916,11 @@
         <v>0.0799999999580905</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>641109.08</v>
+        <v>555790.03</v>
       </c>
       <c r="M14" s="0" t="n">
         <f aca="false">(L14-F14)</f>
-        <v>85319.1141117373</v>
+        <v>0.0641117374179885</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,11 +992,11 @@
         <v>0.0300000000279397</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>438257.03</v>
+        <v>412390.44</v>
       </c>
       <c r="M16" s="0" t="n">
         <f aca="false">(L16-F16)</f>
-        <v>25866.6366442454</v>
+        <v>0.0466442453325726</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,11 +1068,11 @@
         <v>0.0399999999790452</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>397263.04</v>
+        <v>383411.04</v>
       </c>
       <c r="M18" s="0" t="n">
         <f aca="false">(L18-F18)</f>
-        <v>13852.0112864358</v>
+        <v>0.0112864358234219</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,11 +1106,11 @@
         <v>0.0600000000558794</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>544631.06</v>
+        <v>487588.06</v>
       </c>
       <c r="M19" s="0" t="n">
         <f aca="false">(L19-F19)</f>
-        <v>57043.0539582822</v>
+        <v>0.053958282165695</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,11 +1296,11 @@
         <v>0.0699999999487773</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>710115.07</v>
+        <v>604571.57</v>
       </c>
       <c r="M24" s="0" t="n">
         <f aca="false">(L24-F24)</f>
-        <v>105543.574217143</v>
+        <v>0.0742171430028975</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,11 +1448,11 @@
         <v>0.0399999999790452</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>432458.04</v>
+        <v>408291.01</v>
       </c>
       <c r="M28" s="0" t="n">
         <f aca="false">(L28-F28)</f>
-        <v>24167.05962078</v>
+        <v>0.0296207800274715</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,11 +1638,11 @@
         <v>0.0399999999790452</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>436105.04</v>
+        <v>410869.14</v>
       </c>
       <c r="M33" s="0" t="n">
         <f aca="false">(L33-F33)</f>
-        <v>25235.932508274</v>
+        <v>0.0325082740746438</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,11 +1676,11 @@
         <v>0.119999999995343</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>693324.12</v>
+        <v>592701.76</v>
       </c>
       <c r="M34" s="0" t="n">
         <f aca="false">(L34-F34)</f>
-        <v>100622.471309572</v>
+        <v>0.111309571773745</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,11 +1752,11 @@
         <v>0.0937999999150634</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>658206.92</v>
+        <v>567876.81</v>
       </c>
       <c r="M36" s="0" t="n">
         <f aca="false">(L36-F36)</f>
-        <v>90330.2062940421</v>
+        <v>0.0962940420722589</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,11 +1828,11 @@
         <v>0.164500000071712</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>689630.38</v>
+        <v>590090.59</v>
       </c>
       <c r="M38" s="0" t="n">
         <f aca="false">(L38-F38)</f>
-        <v>99539.9311909002</v>
+        <v>0.14119090011809</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,11 +1942,11 @@
         <v>0.0500000000465661</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>538500.05</v>
+        <v>483253.96</v>
       </c>
       <c r="M41" s="0" t="n">
         <f aca="false">(L41-F41)</f>
-        <v>55246.1534528733</v>
+        <v>0.0634528733207844</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,11 +1980,11 @@
         <v>0.0399999999790452</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>387800.04</v>
+        <v>376721.52</v>
       </c>
       <c r="M42" s="0" t="n">
         <f aca="false">(L42-F42)</f>
-        <v>11078.5689682685</v>
+        <v>0.0489682685001753</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,11 +2018,11 @@
         <v>0.103600000031292</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>696302.47</v>
+        <v>594807.21</v>
       </c>
       <c r="M43" s="0" t="n">
         <f aca="false">(L43-F43)</f>
-        <v>101495.362804824</v>
+        <v>0.102804823545739</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,11 +2246,11 @@
         <v>0.0499999999883585</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>443046.05</v>
+        <v>415775.86</v>
       </c>
       <c r="M49" s="0" t="n">
         <f aca="false">(L49-F49)</f>
-        <v>27270.2300630029</v>
+        <v>0.0400630029034801</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,11 +2360,11 @@
         <v>0.0600000000558794</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>648095.06</v>
+        <v>560728.56</v>
       </c>
       <c r="M52" s="0" t="n">
         <f aca="false">(L52-F52)</f>
-        <v>87366.5703914285</v>
+        <v>0.0703914285404608</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,11 +2436,11 @@
         <v>0.0799999998416752</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>1326132</v>
+        <v>632767</v>
       </c>
       <c r="M54" s="0" t="n">
         <f aca="false">(L54-F54)</f>
-        <v>693365.110775328</v>
+        <v>0.110775328008458</v>
       </c>
     </row>
   </sheetData>
